--- a/Dataset/Authors/VERG_Aen.xlsx
+++ b/Dataset/Authors/VERG_Aen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C909F-2AFB-47DB-8584-79F81EF6C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088F2AE-9C81-4943-98B3-CDFF62CC2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B27B59BB-6FA6-470B-A008-077D103B58A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Compounds</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Troiugena</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE961B65-D810-4EEE-AD94-7DC1EA19D6F1}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -905,39 +908,39 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -945,47 +948,47 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -993,119 +996,119 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B27" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B29" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B30" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
@@ -1121,39 +1124,39 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B34" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B35" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B36" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
@@ -1161,31 +1164,31 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B40" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="7">
         <v>1</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B43" s="7">
         <v>1</v>
@@ -1209,7 +1212,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="7">
         <v>1</v>
@@ -1217,39 +1220,39 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B46" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B47" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B48" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B49" s="7">
         <v>2</v>
@@ -1257,7 +1260,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B51" s="7">
         <v>2</v>
@@ -1273,15 +1276,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -1289,119 +1292,119 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B56" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B58" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B59" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B60" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B61" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B63" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B64" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B65" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B66" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B67" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="7">
         <v>1</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="7">
         <v>1</v>
@@ -1417,23 +1420,23 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B72" s="7">
         <v>1</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B73" s="7">
         <v>1</v>
@@ -1449,23 +1452,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B74" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B75" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="7">
         <v>1</v>
@@ -1473,7 +1476,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B77" s="7">
         <v>1</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B78" s="7">
         <v>1</v>
@@ -1489,23 +1492,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B79" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B80" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="B82" s="7">
         <v>1</v>
@@ -1521,55 +1524,55 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="B83" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B84" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B85" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B86" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B88" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B89" s="7">
         <v>2</v>
@@ -1577,23 +1580,23 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B90" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B91" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B92" s="7">
         <v>1</v>
@@ -1601,111 +1604,111 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B93" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B94" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B95" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B96" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B97" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="B98" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B99" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B100" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B101" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B102" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B103" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B104" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B105" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B106" s="7">
         <v>1</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B107" s="7">
         <v>1</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B108" s="7">
         <v>1</v>
@@ -1729,87 +1732,87 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B109" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B110" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B111" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B112" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B113" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B114" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B115" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B116" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="B118" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B119" s="7">
         <v>1</v>
@@ -1817,103 +1820,103 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B121" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B122" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B123" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B124" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B125" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B126" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B127" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B128" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B129" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B130" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B131" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B132" s="7">
         <v>1</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B133" s="7">
         <v>1</v>
@@ -1929,15 +1932,23 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B135" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B134">
-    <sortCondition ref="A6:A134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B135">
+    <sortCondition ref="A6:A135"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
